--- a/lastSundayResult/summary.xlsx
+++ b/lastSundayResult/summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>DB</t>
   </si>
@@ -58,25 +58,13 @@
   </si>
   <si>
     <t>Exact Phrase</t>
-  </si>
-  <si>
-    <t>Mongo AND Issue</t>
-  </si>
-  <si>
-    <t>Maria Exact phrase issue</t>
-  </si>
-  <si>
-    <t>70 Queries Only</t>
-  </si>
-  <si>
-    <t>RED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,8 +79,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,18 +95,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -120,66 +108,31 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="1" customWidth="1"/>
     <col min="2" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="12.7109375" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
@@ -551,7 +504,7 @@
       <c r="B5" s="1">
         <v>2187.2842620000001</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="4">
         <v>6826.5151320000004</v>
       </c>
       <c r="D5" s="1">
@@ -568,13 +521,13 @@
       <c r="B6" s="1">
         <v>8837.2663919999995</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="4">
         <v>3167.2253900000001</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="3">
         <v>29445.038240000002</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="3">
         <v>2617.7102329999998</v>
       </c>
     </row>
@@ -585,13 +538,13 @@
       <c r="B7" s="1">
         <v>8415.0286940000005</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>1743.856843</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="3">
         <v>37270.685657000002</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <v>1739.242733</v>
       </c>
     </row>
@@ -626,36 +579,56 @@
         <v>16879.358378000001</v>
       </c>
       <c r="E9" s="2">
-        <v>1799.420758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>2535.1567100000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+    </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="B12" s="6"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
